--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3978766.094481649</v>
+        <v>3976878.512965247</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628841.0522049705</v>
+        <v>596560.3138814336</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>359.436288432088</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>110.4553145749874</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044667</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>122.5823546578582</v>
+        <v>382.8908255841847</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>58.58442069852326</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>287.2841839626593</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0246247964033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.76801531763104</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>118.4898845065126</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.65680676724932</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>261.995926962756</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.1796758466998</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U25" t="n">
-        <v>210.9685212521341</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965544</v>
+        <v>21.85553884047185</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801226</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>42.20569823125226</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571499</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523588</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.883734065348</v>
+        <v>911.5940398628911</v>
       </c>
       <c r="D2" t="n">
-        <v>917.6180354585979</v>
+        <v>911.5940398628911</v>
       </c>
       <c r="E2" t="n">
-        <v>917.6180354585979</v>
+        <v>911.5940398628911</v>
       </c>
       <c r="F2" t="n">
-        <v>506.6321306689903</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>492.7087266075812</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>165.5140066435841</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4404,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942403</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942403</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942403</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>935.7408973472311</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C5" t="n">
-        <v>935.7408973472311</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D5" t="n">
-        <v>577.4751987404807</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E5" t="n">
-        <v>191.6869461422364</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672433</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1322.340737411353</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1322.340737411353</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4662,13 +4662,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2637.972908494462</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2306.910021150891</v>
       </c>
       <c r="W8" t="n">
-        <v>2351.934357141989</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5030,40 +5030,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5106,34 +5106,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M12" t="n">
-        <v>1819.161927111987</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>1961.218619068865</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>549.6692635248398</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>380.7330805969329</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>380.7330805969329</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>380.7330805969329</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>731.3177283550796</v>
       </c>
     </row>
     <row r="14">
@@ -5276,13 +5276,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,7 +5309,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5355,19 +5355,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>802.0403666355637</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606512</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,7 +5461,7 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1379.229518531122</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
         <v>1379.229518531122</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,10 +5510,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5531,13 +5531,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>323.6581146605672</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>323.6581146605672</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605672</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924718</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,16 +5677,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1304.349443112405</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1080.564027901911</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>791.435389115469</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>536.7509009095821</v>
+        <v>933.2366688293929</v>
       </c>
       <c r="W19" t="n">
-        <v>247.3337308726216</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X19" t="n">
-        <v>247.3337308726216</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028583</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028583</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>323.6581146605672</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609662</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550793</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181188</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201015</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201018</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,13 +6011,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028583</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028583</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471187</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466634</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407765</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,28 +6245,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,19 +6449,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>323.6581146605672</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>323.6581146605672</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542161</v>
+        <v>565.4200295030862</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076798</v>
+        <v>565.4200295030862</v>
       </c>
       <c r="D31" t="n">
-        <v>232.0013381767147</v>
+        <v>543.3437276440243</v>
       </c>
       <c r="E31" t="n">
-        <v>139.8491098756922</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933498</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667504</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962042</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021646</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
         <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818913</v>
+        <v>902.6804289818922</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652446</v>
+        <v>730.4517433652455</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030852</v>
+        <v>565.4200295030862</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6713,34 +6713,34 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,25 +6926,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>629.3975440735812</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083203</v>
@@ -7324,19 +7324,19 @@
         <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,10 +7485,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
         <v>508.1073603047985</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7646,13 +7646,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7725,16 +7725,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8781,10 +8781,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>198.568530941954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417976</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10191,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>198.568530941954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11160,7 +11160,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11397,7 +11397,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>141.6530327053002</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43092547709057</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.2640032163539</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>24.52707137383499</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.3050033817195</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>14.74113413690347</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="U25" t="n">
-        <v>75.26883114644329</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>71.5566775491835</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>48.01209316312207</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897921</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571507</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671256.5266196957</v>
+        <v>671256.5266196958</v>
       </c>
     </row>
     <row r="12">
@@ -26317,13 +26317,13 @@
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="G2" t="n">
         <v>723403.7605147612</v>
@@ -26338,22 +26338,22 @@
         <v>723403.7605147611</v>
       </c>
       <c r="K2" t="n">
-        <v>752620.954088749</v>
+        <v>752620.9540887492</v>
       </c>
       <c r="L2" t="n">
+        <v>759463.6371244612</v>
+      </c>
+      <c r="M2" t="n">
         <v>759463.6371244611</v>
       </c>
-      <c r="M2" t="n">
-        <v>759463.6371244608</v>
-      </c>
       <c r="N2" t="n">
+        <v>759463.637124461</v>
+      </c>
+      <c r="O2" t="n">
         <v>759463.6371244611</v>
       </c>
-      <c r="O2" t="n">
-        <v>759463.637124461</v>
-      </c>
       <c r="P2" t="n">
-        <v>759463.6371244609</v>
+        <v>759463.6371244612</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086698</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284553</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758372</v>
+        <v>787.7936905758438</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759314</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759209</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759211</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477236</v>
+        <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189639</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189636</v>
-      </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26467,46 +26467,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411077</v>
+        <v>-52422.45933411078</v>
       </c>
       <c r="C6" t="n">
         <v>537545.4198804338</v>
       </c>
       <c r="D6" t="n">
-        <v>537545.4198804339</v>
+        <v>537545.4198804337</v>
       </c>
       <c r="E6" t="n">
-        <v>105468.6043985723</v>
+        <v>105371.1452726006</v>
       </c>
       <c r="F6" t="n">
-        <v>630628.6408754687</v>
+        <v>630531.1817494967</v>
       </c>
       <c r="G6" t="n">
-        <v>630628.6408754691</v>
+        <v>630531.1817494968</v>
       </c>
       <c r="H6" t="n">
-        <v>630628.6408754686</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="I6" t="n">
-        <v>630628.6408754687</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="J6" t="n">
-        <v>454205.4216828756</v>
+        <v>454107.9625569035</v>
       </c>
       <c r="K6" t="n">
-        <v>592877.7240509085</v>
+        <v>592859.2303129741</v>
       </c>
       <c r="L6" t="n">
-        <v>628199.0435716724</v>
+        <v>628199.0435716726</v>
       </c>
       <c r="M6" t="n">
-        <v>503740.9351387019</v>
+        <v>503740.935138702</v>
       </c>
       <c r="N6" t="n">
+        <v>638541.9503725392</v>
+      </c>
+      <c r="O6" t="n">
         <v>638541.9503725393</v>
       </c>
-      <c r="O6" t="n">
-        <v>638541.9503725392</v>
-      </c>
       <c r="P6" t="n">
-        <v>594379.3450696936</v>
+        <v>594379.3450696939</v>
       </c>
     </row>
   </sheetData>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108373</v>
+        <v>12.92863350108363</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855698</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>47.43975730962347</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.47600166987382</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.481659405224491e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458423</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>284.2936910838532</v>
+        <v>23.98522015752673</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>192.6397468097661</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>61.95678475475376</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31771,13 +31771,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31792,7 +31792,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,22 +31838,22 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>212.6272478467025</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>233.2909036464245</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,10 +31908,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31920,10 +31920,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31932,7 +31932,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,13 +31944,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32008,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32029,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>353.0329386354457</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555639</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32157,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32169,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32181,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32731,7 +32731,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S23" t="n">
         <v>76.06970478104648</v>
@@ -32792,22 +32792,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>417.779264872032</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33205,7 +33205,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33263,25 +33263,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33433,7 +33433,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540898</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946992</v>
@@ -33497,31 +33497,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33734,28 +33734,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33901,13 +33901,13 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946992</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>213.9849829127208</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34232,7 +34232,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34457,7 +34457,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34469,7 +34469,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35419,19 +35419,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>536.198277674684</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>484.5569784787096</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35656,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>585.3189041590307</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157842</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>60.72709196759501</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36294,10 +36294,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197793</v>
+        <v>741.3502947000136</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>60.72709196759495</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412243</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584675</v>
@@ -36996,19 +36996,19 @@
         <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043166</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37324,7 +37324,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349808</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>537.5560127407024</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,7 +38105,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
